--- a/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
+++ b/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>VM with long name =Concept name in duplicate set  for single concepts</t>
   </si>
@@ -124,6 +124,42 @@
   </si>
   <si>
     <t>Unknown derivation sequence feature</t>
+  </si>
+  <si>
+    <t>2509CE87-E88E-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>2509CE87-F372-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>78485FBD-4C65-D67B-E040-BB89AD432E0E</t>
+  </si>
+  <si>
+    <t>87F3C580-06F4-1DC3-E040-BB89AD434E7E</t>
+  </si>
+  <si>
+    <t>99D7034A-298C-9331-E040-BB89AD4349FA</t>
+  </si>
+  <si>
+    <t>A4499CFB-7A3A-DD4D-E040-BB89AD4307BF</t>
+  </si>
+  <si>
+    <t>B85BD33E-6B16-07C2-E040-BB89AD430D59</t>
+  </si>
+  <si>
+    <t>F6C00C1A-0A55-5623-E040-BB89AD4375BC</t>
+  </si>
+  <si>
+    <t>132D4785-5222-5337-E050-BB89AD433CA8</t>
+  </si>
+  <si>
+    <t>44E62105-96A2-3714-E053-F662850A1CAC</t>
+  </si>
+  <si>
+    <t>453584A6-34AF-15AA-E053-F662850A2541</t>
+  </si>
+  <si>
+    <t>498B0E12-9AE5-79DC-E053-F662850A0B75</t>
   </si>
   <si>
     <r>
@@ -134,7 +170,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CONTE_IDSEQ                                                                     NAME                                                           DETL_NAME</t>
+      <t>CONTE_IDSEQ                                                       DEFINITION                                                                                                 DEFL_NAME</t>
     </r>
     <r>
       <rPr>
@@ -145,14 +181,76 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-F6141DD3-5081-EC4B-E040-BB89AD435D8B                LA4489-6                                                      LOINC_CODE
-C70EECD5-9998-2C9B-E034-0003BA12F5E7                  UNK NAACCR                                               Alt Name
-F6141DD3-5081-EC4B-E040-BB89AD435D8B                Unknown                                                     LOINC_NAME
-D9344734-8CAF-4378-E034-0003BA12F5E7                   Unknown                                                    UML Value Name
-D9344734-8CAF-4378-E034-0003BA12F5E7                   Unknown Date                                           VM Alt Name
-D9344734-8CAF-4378-E034-0003BA12F5E7                   Unknown derivation sequence feature UML Value Name
+D9344734-8CAF-4378-E034-0003BA12F5E7    Sequence feature whose derivation is unknown.                             UML Value Definition
+D9344734-8CAF-4378-E034-0003BA12F5E7    Not known, not observed, not recorded, or refused.:C17998 3.1 VM Definition
+C70EECD5-9998-2C9B-E034-0003BA12F5E7   Family income to poverty threshold ratio is unknown                    UML Value Definition
+D9344734-8CAF-4378-E034-0003BA12F5E7   Could not be determined or unsure.                                                    UML Value Definition
 </t>
     </r>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7      Could not be determined or unsure                                             UML Value Definition</t>
+  </si>
+  <si>
+    <t>F6141DD3-5081-EC4B-E040-BB89AD435D8B LA4489-6 LOINC_CODE
+F6141DD3-5081-EC4B-E040-BB89AD435D8B Unknown LOINC_NAME</t>
+  </si>
+  <si>
+    <t>2509CE87-BFA5-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>2509CE87-BD42-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>C25685:C17649</t>
+  </si>
+  <si>
+    <t>Specify Other</t>
+  </si>
+  <si>
+    <t>2825736F-7FF9-F11E-E050-BB89AD434953</t>
+  </si>
+  <si>
+    <t>OTHER (PLEASE SPECIFY)</t>
+  </si>
+  <si>
+    <t>C41132:C4876</t>
+  </si>
+  <si>
+    <t>None Symptom</t>
+  </si>
+  <si>
+    <t>Symptom not present</t>
+  </si>
+  <si>
+    <t>C854B0C5-7698-E2BF-E040-BB89AD433AFB</t>
+  </si>
+  <si>
+    <t>C7635D2B-2661-A7A5-E040-BB89AD4352B6</t>
+  </si>
+  <si>
+    <t>E247D1AF-E2B5-3B28-E040-BB89AD435C97</t>
+  </si>
+  <si>
+    <t>F6141DD3-5081-EC4B-E040-BB89AD435D8B                   LA20318-4                                            LOINC_CODE
+F6141DD3-5081-EC4B-E040-BB89AD435D8B                   Other, PLEASE SPECIFY                      LOINC_NAME</t>
+  </si>
+  <si>
+    <t>F6141DD3-5081-EC4B-E040-BB89AD435D8B                 LA4489-6                                                                                 LOINC_CODE
+F6141DD3-5081-EC4B-E040-BB89AD435D8B                 Unknown                                                                                LOINC_NAME
+D9344734-8CAF-4378-E034-0003BA12F5E7                    Unknown                                                                               UML Value Name</t>
+  </si>
+  <si>
+    <t>99BA9DC8-2095-4E69-E034-080020C9C0E0                   I don't know                                                                                  VM Alt Name
+C70EECD5-9998-2C9B-E034-0003BA12F5E7                   UNK                                                                                                  HL7 Code
+C70EECD5-9998-2C9B-E034-0003BA12F5E7                   unknown                                                                                        NAACCR VM Name
+D9344734-8CAF-4378-E034-0003BA12F5E7                   Grade/differentiation unknown, not stated, or not applicable NAACCR Alt Name
+D9344734-8CAF-4378-E034-0003BA12F5E7                   LA4489-6                                                                                         LOINC_CODE
+D9344734-8CAF-4378-E034-0003BA12F5E7                    Unknown                                                                                       LOINC_NAME
+D9344734-8CAF-4378-E034-0003BA12F5E7                    Unknown                                                                                        UML Value Name
+D9344734-8CAF-4378-E034-0003BA12F5E7                    Unknown cause of death                                                            VM Alt Name
+F6141DD3-5081-EC4B-E040-BB89AD435D8B                 LA4489-6                                                                                        LOINC_CODE
+F6141DD3-5081-EC4B-E040-BB89AD435D8B                 Unknown                                                                                        LOINC_NAME</t>
   </si>
   <si>
     <r>
@@ -163,7 +261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CONTE_IDSEQ                                                   DEFINITION                                                                                                 DEFL_NAME</t>
+      <t>CONTE_IDSEQ                                                                     NAME                                                                                               DETL_NAME</t>
     </r>
     <r>
       <rPr>
@@ -174,12 +272,68 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-D9344734-8CAF-4378-E034-0003BA12F5E7 Sequence feature whose derivation is unknown.                             UML Value Definition
-D9344734-8CAF-4378-E034-0003BA12F5E7 Not known, not observed, not recorded, or refused.:C17998 3.1 VM Definition
-C70EECD5-9998-2C9B-E034-0003BA12F5E7 Family income to poverty threshold ratio is unknown                    UML Value Definition
-D9344734-8CAF-4378-E034-0003BA12F5E7 Could not be determined or unsure.                                                    UML Value Definition
+F6141DD3-5081-EC4B-E040-BB89AD435D8B                LA4489-6                                                                                         LOINC_CODE
+C70EECD5-9998-2C9B-E034-0003BA12F5E7                  UNK NAACCR                                                                                 Alt Name
+F6141DD3-5081-EC4B-E040-BB89AD435D8B                Unknown                                                                                       LOINC_NAME
+D9344734-8CAF-4378-E034-0003BA12F5E7                   Unknown                                                                                      UML Value Name
+D9344734-8CAF-4378-E034-0003BA12F5E7                   Unknown Date                                                                             VM Alt Name
+D9344734-8CAF-4378-E034-0003BA12F5E7                   Unknown derivation sequence feature UML                         Value Name
 </t>
     </r>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7             Not present: Symptom is assessed, but found absent                   Manually-curated</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7                 OTHER (PLEASE SPECIFY)                                                             Manually-curated</t>
+  </si>
+  <si>
+    <t>C70EECD5-9998-2C9B-E034-0003BA12F5E7         Patient's address is unknown                      NAACCR
+C70EECD5-9998-2C9B-E034-0003BA12F5E7         Unknown whether Spanish or not             NAACCR
+C70EECD5-9998-2C9B-E034-0003BA12F5E7         a proper value is applicable but not known.  this event occurred, but the date is unknown (e.g., birth date). NAACCR
+D9344734-8CAF-4378-E034-0003BA12F5E7          A response indicating that the respondent does not know what the correct answer is. UML Value Definition
+D9344734-8CAF-4378-E034-0003BA12F5E7          Could not be determined or unsure. UML Value Definition
+D9344734-8CAF-4378-E034-0003BA12F5E7          Not known, not observed, not recorded, or refused. UML Value Definition
+D9344734-8CAF-4378-E034-0003BA12F5E7          Not known, not observed, or not recorded. Manually-curated</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 Unknown Manually-curated</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 Unknown Use of Oral Contraceptives Manually-curated</t>
+  </si>
+  <si>
+    <t>C67142</t>
+  </si>
+  <si>
+    <t>32BD33AF-53BE-3D38-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 Not answering question for participant does not know. Manually-curated</t>
+  </si>
+  <si>
+    <t>B7ECD76F-ACBE-E3F2-E040-BB89AD4330D2</t>
+  </si>
+  <si>
+    <t>Does Not Know</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>2509CE87-E897-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>A6531898-A7F3-5C37-E040-BB89AD43329F</t>
+  </si>
+  <si>
+    <t>A664DDFF-C393-702B-E040-BB89AD437F69</t>
+  </si>
+  <si>
+    <t>A664DDFF-C3D8-702B-E040-BB89AD437F69</t>
+  </si>
+  <si>
+    <t>B736A379-6DCD-37F3-E040-BB89AD4345C4</t>
   </si>
 </sst>
 </file>
@@ -240,17 +394,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,17 +736,17 @@
     <col min="1" max="1" width="61.26953125" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="48.26953125" customWidth="1"/>
-    <col min="4" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="37.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="37" customWidth="1"/>
-    <col min="9" max="9" width="102.7265625" customWidth="1"/>
-    <col min="10" max="10" width="35.1796875" customWidth="1"/>
-    <col min="11" max="11" width="107.81640625" customWidth="1"/>
-    <col min="12" max="12" width="43.54296875" customWidth="1"/>
+    <col min="4" max="6" width="16.6328125" customWidth="1"/>
+    <col min="7" max="7" width="37.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="42.90625" customWidth="1"/>
+    <col min="10" max="10" width="114.08984375" customWidth="1"/>
+    <col min="11" max="11" width="35.1796875" customWidth="1"/>
+    <col min="12" max="12" width="148.08984375" customWidth="1"/>
+    <col min="13" max="13" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,80 +759,321 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>5682953</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="4">
         <v>2565695</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H3" s="7">
+        <v>2572577</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="H4" s="7">
+        <v>2575365</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I7" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="7">
+        <v>2960664</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H6" s="7">
+        <v>3104212</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H7" s="7">
+        <v>3183550</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H8" s="7">
+        <v>3241403</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H9" s="7">
+        <v>3371379</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H10" s="7">
+        <v>4266671</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="7">
+        <v>4783253</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="7">
+        <v>5612208</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="7">
+        <v>5612432</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="7">
+        <v>5682944</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>3369246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>2572586</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>3247120</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>3247307</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>3247309</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>3361449</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>2562104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23">
+        <v>2561493</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>3822957</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25">
+        <v>3559837</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
+++ b/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
-  <si>
-    <t>VM with long name =Concept name in duplicate set  for single concepts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Type of Final VM</t>
   </si>
@@ -335,12 +332,59 @@
   <si>
     <t>B736A379-6DCD-37F3-E040-BB89AD4345C4</t>
   </si>
+  <si>
+    <t xml:space="preserve">VM with long name =Concept name in duplicate set  for single concepts when long name of Retired VM can be = CONCEPT_NAME  or SYNONYM </t>
+  </si>
+  <si>
+    <t>VM LONG NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM with long name =Concept name in duplicate set  for single concepts when long name of Retired VM can be SYNONYM </t>
+  </si>
+  <si>
+    <t>Final VM  and Retiered records with matching synonyms for multiple concepts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5682953 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(not retierd  2560405,
+2572012,
+3036752,
+3124350)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3369246</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (not retierd 
+2573743,
+2654058)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +401,13 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -410,6 +461,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,19 +784,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
     <col min="4" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="7" width="37.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" customWidth="1"/>
-    <col min="9" max="9" width="42.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
     <col min="10" max="10" width="114.08984375" customWidth="1"/>
     <col min="11" max="11" width="35.1796875" customWidth="1"/>
     <col min="12" max="12" width="148.08984375" customWidth="1"/>
@@ -747,328 +804,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>5682953</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="4">
         <v>2565695</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="H3" s="7">
         <v>2572577</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="H4" s="7">
         <v>2575365</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="H5" s="7">
         <v>2960664</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="H6" s="7">
         <v>3104212</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="H7" s="7">
         <v>3183550</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="H8" s="7">
         <v>3241403</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="H9" s="7">
         <v>3371379</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="H10" s="7">
         <v>4266671</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="H11" s="7">
         <v>4783253</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="H12" s="7">
         <v>5612208</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="H13" s="7">
         <v>5612432</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="H14" s="7">
         <v>5682944</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>3369246</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" spans="1:13" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16" s="5">
+        <v>2572586</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G16" t="s">
+      <c r="L16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H16">
-        <v>2572586</v>
-      </c>
-      <c r="I16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>3247120</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>3247307</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H19">
         <v>3247309</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H20">
         <v>3361449</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="9">
         <v>2562104</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
       </c>
       <c r="H23">
         <v>2561493</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="9">
         <v>3822957</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>55</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>57</v>
       </c>
       <c r="H25">
         <v>3559837</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1094,79 +1192,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
+++ b/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Type of Final VM</t>
   </si>
@@ -333,9 +333,6 @@
     <t>B736A379-6DCD-37F3-E040-BB89AD4345C4</t>
   </si>
   <si>
-    <t xml:space="preserve">VM with long name =Concept name in duplicate set  for single concepts when long name of Retired VM can be = CONCEPT_NAME  or SYNONYM </t>
-  </si>
-  <si>
     <t>VM LONG NAME</t>
   </si>
   <si>
@@ -378,6 +375,63 @@
 2573743,
 2654058)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VM with long name =Concept name in duplicate set  for single concepts when long name of Retired VM can be  CONCEPT_NAME  or SYNONYM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM with long name =Concept name in duplicate set  for smultiple concepts when long name of Retired VM can be CONCEPT_NAME  or SYNONYM </t>
+  </si>
+  <si>
+    <t>4888051</t>
+  </si>
+  <si>
+    <t>3E5C61AC-732C-41A9-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>SPECIFY OTHER</t>
+  </si>
+  <si>
+    <t>C17649:C25685</t>
+  </si>
+  <si>
+    <t>4188777</t>
+  </si>
+  <si>
+    <t>F37D0429-3B5B-6787-E034-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>OTHER SPECIFY</t>
+  </si>
+  <si>
+    <t>2570536</t>
+  </si>
+  <si>
+    <t>2780132</t>
+  </si>
+  <si>
+    <t>2960882</t>
+  </si>
+  <si>
+    <t>3232335</t>
+  </si>
+  <si>
+    <t>Other, Specify</t>
+  </si>
+  <si>
+    <t>Other Specify</t>
+  </si>
+  <si>
+    <t>2509CE87-E095-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>5615FFC6-BF06-6405-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>788A8521-F538-5F2F-E040-BB89AD4349DC</t>
+  </si>
+  <si>
+    <t>A1EB3697-8F1A-E94B-E040-BB89AD436A29</t>
   </si>
 </sst>
 </file>
@@ -445,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -466,6 +520,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -782,21 +842,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.08984375" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="5" customWidth="1"/>
     <col min="4" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="5" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="5" customWidth="1"/>
     <col min="10" max="10" width="114.08984375" customWidth="1"/>
     <col min="11" max="11" width="35.1796875" customWidth="1"/>
     <col min="12" max="12" width="148.08984375" customWidth="1"/>
@@ -810,7 +870,7 @@
       <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -820,15 +880,15 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -846,12 +906,12 @@
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -863,13 +923,13 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="4">
         <v>2565695</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -882,10 +942,12 @@
     <row r="3" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="7">
         <v>2572577</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -898,10 +960,12 @@
     <row r="4" spans="1:13" s="4" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="7">
         <v>2575365</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -911,26 +975,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="7">
         <v>2960664</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="7">
         <v>3104212</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -940,110 +1008,128 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="7">
         <v>3183550</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="7">
         <v>3241403</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="7">
         <v>3371379</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="7">
         <v>4266671</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="7">
         <v>4783253</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="7">
         <v>5612208</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="7">
         <v>5612432</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="7">
         <v>5682944</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>71</v>
@@ -1070,102 +1156,184 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>3247120</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>3247307</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="H19">
         <v>3247309</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="H20">
         <v>3361449</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="9">
+    <row r="22" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="9">
         <v>2562104</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D30" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E30" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F30" t="s">
         <v>52</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H23">
+      <c r="H30">
         <v>2561493</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="9">
+    <row r="32" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="9">
         <v>3822957</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E32" t="s">
         <v>54</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F32" t="s">
         <v>55</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H25">
+      <c r="H32">
         <v>3559837</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L32" t="s">
         <v>63</v>
       </c>
     </row>

--- a/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
+++ b/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
   <si>
     <t>Type of Final VM</t>
   </si>
@@ -343,24 +343,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5682953 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(not retierd  2560405,
-2572012,
-3036752,
-3124350)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>3369246</t>
     </r>
     <r>
@@ -432,6 +414,235 @@
   </si>
   <si>
     <t>A1EB3697-8F1A-E94B-E040-BB89AD436A29</t>
+  </si>
+  <si>
+    <t>2559668</t>
+  </si>
+  <si>
+    <t>2509CE87-B621-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>2560077</t>
+  </si>
+  <si>
+    <t>2509CE87-B7BA-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>2568174</t>
+  </si>
+  <si>
+    <t>2509CE87-D75B-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>2570538</t>
+  </si>
+  <si>
+    <t>2509CE87-E097-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>2770998</t>
+  </si>
+  <si>
+    <t>53F45DBF-5E42-1D6F-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>3772693</t>
+  </si>
+  <si>
+    <t>DDE11263-D603-3345-E040-BB89AD432069</t>
+  </si>
+  <si>
+    <t>4337194</t>
+  </si>
+  <si>
+    <t>FA7C1A6F-1EF3-C2AB-E040-BB89AD436686</t>
+  </si>
+  <si>
+    <t>4882292</t>
+  </si>
+  <si>
+    <t>18DFE9A5-9B5F-D3BA-E050-BB89AD432D6F</t>
+  </si>
+  <si>
+    <t>Other, specify</t>
+  </si>
+  <si>
+    <t>Other specify</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>4882332</t>
+  </si>
+  <si>
+    <t>18DFE9A5-9CB1-D3BA-E050-BB89AD432D6F</t>
+  </si>
+  <si>
+    <t>4883272</t>
+  </si>
+  <si>
+    <t>191C4F99-BD94-824B-E050-BB89AD431D3F</t>
+  </si>
+  <si>
+    <t>EB011825-878C-E0E9-E040-BB89AD437FDD    Other VM                                                                               Alt Name
+46CABA5D-DAFF-6D24-E053-F662850A8A74    Other (specify)                                                                     VM Alt Name
+EB011825-878C-E0E9-E040-BB89AD437FDD     Other, specify                                                                       VM Alt Name
+46CABA5D-DAFF-6D24-E053-F662850A8A74    Other (incl. trunk, retroperitoneum), specify                 VM Alt Name
+EB011825-878C-E0E9-E040-BB89AD437FDD     Other (Specify)                                                                      VM Alt Name</t>
+  </si>
+  <si>
+    <t>46CABA5D-DAFF-6D24-E053-F662850A8A74      Other (specify)                   HCMI Name
+99BA9DC8-2095-4E69-E034-080020C9C0E0        Other specify                     VM Alt Name
+EB011825-878C-E0E9-E040-BB89AD437FDD       Other                                   VM Alt Name</t>
+  </si>
+  <si>
+    <t>F6141DD3-5081-EC4B-E040-BB89AD435D8B     Other, PLEASE SPECIFY LOINC_NAME
+F6141DD3-5081-EC4B-E040-BB89AD435D8B     LA20318-4 LOINC_CODE</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 Other imaging time point, specify ACRIN Alt Name
+F6141DD3-5081-EC4B-E040-BB89AD435D8B LA20318-4 LOINC_CODE
+A932C6E7-82EE-67C2-E034-0003BA12F5E7 Other VM Alt Name
+F6141DD3-5081-EC4B-E040-BB89AD435D8B Other, PLEASE SPECIFY LOINC_NAME</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 Other: please specify VM Alt Name</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 Other(specify items): Manually-curated</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 anatomic location other than enumerated Manually-curated</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 Other, specify Manually-curated</t>
+  </si>
+  <si>
+    <t>9F52E161-E14F-C614-E040-BB89AD4377D5</t>
+  </si>
+  <si>
+    <t>3211239</t>
+  </si>
+  <si>
+    <t>Undifferentiated Pleomorphic Sarcoma</t>
+  </si>
+  <si>
+    <t>Malignant Fibrous Histiocytoma</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VM with long name =Concept name SYNONYM  in duplicate set  for single concepts when long name of Retired VM can be  SYNONYM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(VM Name Unclassified Pleomorphic Sarcoma)</t>
+    </r>
+  </si>
+  <si>
+    <t>FF69122E-9D72-60EF-E040-BB89AD436B90</t>
+  </si>
+  <si>
+    <t>9F52E161-E151-C614-E040-BB89AD4377D5</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 Malignant Fibrous Histiocytoma UML Value Name</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 A pleomorphic sarcoma characterized by the presence of fibrohistiocytic cells and spindle cells arranged in a storiform pattern. UML Value Definition</t>
+  </si>
+  <si>
+    <t>Malignant fibrous histiocytoma</t>
+  </si>
+  <si>
+    <t>2572965</t>
+  </si>
+  <si>
+    <t>2509CE87-EA12-5C23-E044-0003BA3F9857</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7          Malignant fibrous histiocytoma          Manually-curated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4417403 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5682953 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(not retiered  2560405,
+2572012,
+3036752,
+3124350)</t>
+    </r>
+  </si>
+  <si>
+    <t>8F5E042A-BA79-4907-E040-BB89AD43540A DEFINITION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DEFINITION
+2B161032-08D5-4CEA-E044-0003BA3F9857 DEFINITION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DEFINITION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DEFINITION
+2B161032-08D5-4CEA-E044-0003BA3F9857 DEFINITION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DEFINITION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DEFINITION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DEFINITION
+9ADC016C-6842-12D2-E040-BB89AD430864 DEFINITION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DEFINITION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DEFINITION
+7DAE74C9-17A0-5875-E040-BB89AD434060 DEFINITION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DEFINITION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DEFINITION
+7DAE74C9-17A0-5875-E040-BB89AD434060 DEFINITION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DEFINITION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DEFINITION
+854BE08E-F54C-F9C5-E040-BB89AD43550B DEFINITION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DEFINITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9EB47E92-77CC-FEE5-E040-BB89AD4308CA DEFINITION
+</t>
+  </si>
+  <si>
+    <t>2136019E-B4DA-25AE-E044-0003BA3F9857 DEFINITION
+7DAE74C9-17A0-5875-E040-BB89AD434060 DEFINITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9EB47E92-77CC-FEE5-E040-BB89AD4308CA DESIGNATION
+</t>
+  </si>
+  <si>
+    <t>2136019E-B4DA-25AE-E044-0003BA3F9857 DESIGNATION
+7DAE74C9-17A0-5875-E040-BB89AD434060 DESIGNATION</t>
+  </si>
+  <si>
+    <t>79FCCB70-2C6A-535F-E040-BB89AD43662F DESIGNATION
+8F5E042A-BA79-4907-E040-BB89AD43540A DESIGNATION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DESIGNATION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DESIGNATION
+8F5E042A-BA79-4907-E040-BB89AD43540A DESIGNATION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DESIGNATION
+313CEF9E-9F06-0307-E044-0003BA3F9857 DESIGNATION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DESIGNATION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DESIGNATION
+79FCCB70-2C6A-535F-E040-BB89AD43662F DESIGNATION
+7DAE74C9-17A0-5875-E040-BB89AD434060 DESIGNATION
+9ADC016C-6842-12D2-E040-BB89AD430864 DESIGNATION
+9EB47E92-77CC-FEE5-E040-BB89AD4308CA DESIGNATION
+C96DEC53-E4F4-6912-E040-BB89AD4341C6 DESIGNATION</t>
   </si>
 </sst>
 </file>
@@ -842,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -853,12 +1064,13 @@
     <col min="1" max="1" width="28.08984375" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="9" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" style="5" customWidth="1"/>
-    <col min="4" max="6" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="6" width="16.6328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.453125" style="5" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" customWidth="1"/>
     <col min="9" max="9" width="17.453125" style="5" customWidth="1"/>
     <col min="10" max="10" width="114.08984375" customWidth="1"/>
-    <col min="11" max="11" width="35.1796875" customWidth="1"/>
+    <col min="11" max="11" width="44.26953125" customWidth="1"/>
     <col min="12" max="12" width="148.08984375" customWidth="1"/>
     <col min="13" max="13" width="43.54296875" customWidth="1"/>
   </cols>
@@ -876,10 +1088,10 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>79</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -906,10 +1118,10 @@
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -917,10 +1129,10 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -935,14 +1147,22 @@
       <c r="J2" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="L2" s="5" t="s">
         <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="7">
         <v>2572577</v>
@@ -953,14 +1173,22 @@
       <c r="J3" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="M3" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="7">
         <v>2575365</v>
@@ -971,14 +1199,22 @@
       <c r="J4" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>65</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="7">
         <v>2960664</v>
@@ -994,6 +1230,8 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="7">
         <v>3104212</v>
@@ -1012,6 +1250,8 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="7">
         <v>3183550</v>
@@ -1027,6 +1267,8 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="7">
         <v>3241403</v>
@@ -1042,6 +1284,8 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="7">
         <v>3371379</v>
@@ -1057,6 +1301,8 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="7">
         <v>4266671</v>
@@ -1072,6 +1318,8 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="7">
         <v>4783253</v>
@@ -1084,6 +1332,8 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="7">
         <v>5612208</v>
@@ -1096,6 +1346,8 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="7">
         <v>5612432</v>
@@ -1108,6 +1360,8 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="7">
         <v>5682944</v>
@@ -1120,220 +1374,417 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="7"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2565695</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H19" s="5">
         <v>2572586</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="H17">
-        <v>3247120</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="H18">
-        <v>3247307</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="H19">
-        <v>3247309</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="H20">
+        <v>3247120</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>3247307</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>3247309</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H23">
         <v>3361449</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="25" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="F34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="H38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="H40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2562104</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="E44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44">
+        <v>2561493</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="9">
-        <v>2562104</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30">
-        <v>2561493</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="B46" s="9">
         <v>3822957</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D46" t="s">
         <v>53</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H32">
+      <c r="H46">
         <v>3559837</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L46" t="s">
         <v>63</v>
       </c>
     </row>

--- a/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
+++ b/scripts/meta/JIRA567duplicateVM/TEST CASES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
   <si>
     <t>Type of Final VM</t>
   </si>
@@ -643,6 +643,30 @@
 9ADC016C-6842-12D2-E040-BB89AD430864 DESIGNATION
 9EB47E92-77CC-FEE5-E040-BB89AD4308CA DESIGNATION
 C96DEC53-E4F4-6912-E040-BB89AD4341C6 DESIGNATION</t>
+  </si>
+  <si>
+    <t>C107221:C25301</t>
+  </si>
+  <si>
+    <t>Several Day</t>
+  </si>
+  <si>
+    <t>E141992A-68C7-79DB-E040-BB89AD43560A</t>
+  </si>
+  <si>
+    <t>E1CC4283-D134-A91B-E040-BB89AD43126C</t>
+  </si>
+  <si>
+    <t>Several days</t>
+  </si>
+  <si>
+    <t>Final VM and Retiered records NAME do not match to concepts/synonyms for multiple concepts</t>
+  </si>
+  <si>
+    <t>E141992A-68CA-79DB-E040-BB89AD43560A</t>
+  </si>
+  <si>
+    <t>D9344734-8CAF-4378-E034-0003BA12F5E7 1 VM Alt Name</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1786,6 +1810,38 @@
       </c>
       <c r="L46" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3812991</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3811310</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
